--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.974569333333333</v>
+        <v>0.01306</v>
       </c>
       <c r="H2">
-        <v>14.923708</v>
+        <v>0.03918</v>
       </c>
       <c r="I2">
-        <v>0.8019001385889376</v>
+        <v>0.01051556883913273</v>
       </c>
       <c r="J2">
-        <v>0.8019001385889376</v>
+        <v>0.01051556883913273</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2374494597982222</v>
+        <v>0.0006233886266666667</v>
       </c>
       <c r="R2">
-        <v>2.137045138184</v>
+        <v>0.00561049764</v>
       </c>
       <c r="S2">
-        <v>0.8019001385889376</v>
+        <v>0.01051556883913273</v>
       </c>
       <c r="T2">
-        <v>0.8019001385889376</v>
+        <v>0.01051556883913273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.853422</v>
       </c>
       <c r="I3">
-        <v>0.04585718375586337</v>
+        <v>0.2290509900416114</v>
       </c>
       <c r="J3">
-        <v>0.04585718375586338</v>
+        <v>0.2290509900416114</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.122208323556</v>
       </c>
       <c r="S3">
-        <v>0.04585718375586337</v>
+        <v>0.2290509900416114</v>
       </c>
       <c r="T3">
-        <v>0.04585718375586338</v>
+        <v>0.2290509900416114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9444340000000001</v>
+        <v>0.9444339999999999</v>
       </c>
       <c r="H4">
         <v>2.833302</v>
       </c>
       <c r="I4">
-        <v>0.152242677655199</v>
+        <v>0.7604334411192558</v>
       </c>
       <c r="J4">
-        <v>0.152242677655199</v>
+        <v>0.7604334411192558</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04508035331066667</v>
+        <v>0.04508035331066666</v>
       </c>
       <c r="R4">
-        <v>0.405723179796</v>
+        <v>0.4057231797959999</v>
       </c>
       <c r="S4">
-        <v>0.152242677655199</v>
+        <v>0.7604334411192558</v>
       </c>
       <c r="T4">
-        <v>0.152242677655199</v>
+        <v>0.7604334411192558</v>
       </c>
     </row>
   </sheetData>
